--- a/8_code/ai-backend/data/test_sets/shipping-delay-estimate-test-set.xlsx
+++ b/8_code/ai-backend/data/test_sets/shipping-delay-estimate-test-set.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My order 2814 is delayed, when will it arrive?</t>
+          <t>My order 1324 is delayed, when will it ship?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 17272, 'ProductName': 'hewlett packard enterprise 589082 b21 2ghz 18mb l3 processor', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2814, 'CustomerID': 744, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-05 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 38035, 'ProductName': 'liebherr cufr3311 fire red smartfrost fridge freezer', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 1324, 'CustomerID': 632, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-06 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I haven't received my order 2844 yet. Can you tell me when it will be delivered?</t>
+          <t>I haven't received my order 1653. Can you tell me when it will arrive?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 25685, 'ProductName': 'panasonic 1800w microwave oven ne1880bpq', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 2844, 'CustomerID': 173, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-09-29 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 13069, 'ProductName': 'jvc lt 32c460 32 led tv', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 1653, 'CustomerID': 668, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-20 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The estimated delivery date for order 1737 has passed. Can I get an update?</t>
+          <t>My order 2713 has been shipped. When will it arrive?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 29890, 'ProductName': 'bosch sms46mw03e', 'Category': 'Dishwashers', 'Category ID': 2619, 'OrderID': 1737, 'CustomerID': 695, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-21 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 12517, 'ProductName': 'samsung ue55mu6500u 6 series 55 led tv', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 2713, 'CustomerID': 2386, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-11 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Order 1290 hasn't been shipped yet. Is there a problem?</t>
+          <t>The estimated delivery date for order 1306 has passed. Can I get an update?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 11852, 'ProductName': 'lg hospitality display 32lv761h lcd tv 80 1 cm 32 schwarz', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 1290, 'CustomerID': 905, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-06 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 10103, 'ProductName': 'samsung ue75nu8000txzg fernseher premium uhd', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 1306, 'CustomerID': 571, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-22 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Where is my order 1003? It's late.</t>
+          <t>I want to cancel order 3368 because it is delayed.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 1425, 'ProductName': 'doro primo 401 schwarz', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1003, 'CustomerID': 729, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-15 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 36534, 'ProductName': 'indesit ui8f1cw freezer', 'Category': 'Freezers', 'Category ID': 2621, 'OrderID': 3368, 'CustomerID': 2073, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-28 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I haven't received my order with Order ID 2517 yet. Is it delayed?</t>
+          <t>I haven't received my order with Order ID 3065 yet. Is it delayed?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 17665, 'ProductName': 'intel pentium dual core e5400 2.7ghz 800fsb socket 775 2mb 2x1mb l2 cache retail boxed processor', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2208, 'CustomerID': 1358, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-14 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 22065, 'ProductName': 'sony dsc rx0 1.0 type sensor ultra compact camera with waterproof and shockproof design black', 'Category': 'Digital Cameras', 'Category ID': 2617, 'OrderID': 3421, 'CustomerID': 1607, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-27 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>My Order ID is 3088. It should have arrived by now. Can I get an ETA?</t>
+          <t>The estimated delivery date for order 1985 has passed. When can I expect it?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 29226, 'ProductName': 'smeg st2fabwh dishwasher', 'Category': 'Dishwashers', 'Category ID': 2619, 'OrderID': 1880, 'CustomerID': 757, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-16 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 11032, 'ProductName': 'samsung ue65nu7500/ue65nu7500', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 2640, 'CustomerID': 665, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-26 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The estimated delivery date for order 2466 has passed. When can I expect it to be delivered?</t>
+          <t>My order 1518 is delayed. What's the reason for the delay and when will it be shipped?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 30776, 'ProductName': 'bosch serie 4 wan28100gb 7kg 1400rpm freestanding washing machine white', 'Category': 'Washing Machines', 'Category ID': 2620, 'OrderID': 2425, 'CustomerID': 827, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-20 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 39112, 'ProductName': 'miele kfn 28132 d freestanding fridge freezer with frost free clean steel', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 2515, 'CustomerID': 1606, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-02 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Order 1367 is showing as delayed. What is the reason for the delay and when will it ship?</t>
+          <t>Order 1874 hasn't arrived yet. Can you give me an update on its shipping status and the new estimated delivery date?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 33007, 'ProductName': 'hotpoint rpd9477dd 9kg 1400rpm freestanding washing machine white', 'Category': 'Washing Machines', 'Category ID': 2620, 'OrderID': 2075, 'CustomerID': 1126, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-22 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 46368, 'ProductName': 'smeg fab5rgo refrigerator', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 1631, 'CustomerID': 1917, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-04 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>My order 1954 is delayed, when will it be shipped?</t>
+          <t>Order 3249 is late. I'm very disappointed. Can you tell me when it will arrive?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 10748, 'ProductName': 'sony kd75xf8596bu 75 4k hdr ultra hd smart android led tv amazon alexa', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 3469, 'CustomerID': 898, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-09-29 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 44943, 'ProductName': 'zanussi free standing larder fridge in white', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 1459, 'CustomerID': 616, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-15 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
